--- a/Brief/Brief.xlsx
+++ b/Brief/Brief.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BA74B80D-4FB6-4570-960E-9E3AFB7C25EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_1hljhzhi7rkj" localSheetId="0">List1!$B$18</definedName>
+    <definedName name="_gjdgxs" localSheetId="0">List1!$B$13</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,9 +23,394 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <r>
+      <t xml:space="preserve">[hed] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>5 Things You Should Spend MORE Money on in 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[subhed] </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Put your money to good use this year by spending it on these things that will help you better yourself.</t>
+    </r>
+  </si>
+  <si>
+    <t>[body]</t>
+  </si>
+  <si>
+    <r>
+      <t>This coming year, make a resolution to spend more on yourself </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>invest in the things that will make you look and feel your best! When you take your self-care seriously, not only will you look good, but you’ll feel good, too. Invest in small things that can make a big impact, so you can lead a healthier life in 2019. Here are a few ideas to get you started.</t>
+    </r>
+  </si>
+  <si>
+    <t>[H3] What to Spend Money on This Year</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Fitness goals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Staying active is an important ingredient to any healthy lifestyle, and exercising on a regular basis can reduce stress. Look into joining a gym or a fitness club or taking a workout class — there’s no one-size-fits-all answer. If you invest in an activity you enjoy, you’re more likely to stick with it.</t>
+  </si>
+  <si>
+    <r>
+      <t>2. Toothpaste</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Your smile is one of your best assets, so proactively protect your teeth to keep them healthy and strong. Even the healthiest foods, like tomatoes and berries, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>contain acid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> that can cause erosion in your teeth. To prevent this, try a toothpaste like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Pronamel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> to reharden your precious enamel (when used twice a day) so you can keep that smile pristine. </t>
+    </r>
+  </si>
+  <si>
+    <t>3. Fresh foods</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Incorporate more fresh, nonprocessed foods into your diet so your body can get the nutrients it needs to stay healthy. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Eliminating processed foods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> will help fuel your day so you feel more energized. Buying foods like fruits, vegetables, whole grains, beans, and nuts is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>a great place to start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>4. Education</t>
+  </si>
+  <si>
+    <t>Exercise your mind by brushing up on some knowledge or learning something new. Education is an investment in yourself, and it can further your career. Even if your school days are behind you, try taking a class to learn more about something that interests you.</t>
+  </si>
+  <si>
+    <t>5. Moisturizers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>skin is the largest organ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> your body has, so it’s important to treat it with care. A good moisturizer can give your skin the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>antioxidants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> it needs for a healthy glow. Choose a moisturizer that complements your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>skin type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> to assist with dry, oily, or sensitive skin.</t>
+    </r>
+  </si>
+  <si>
+    <t>Start thinking about ways you can invest in yourself in 2019. Do what makes you feel good, and get ready to make this year your best one yet!</t>
+  </si>
+  <si>
+    <t>Search Engine Optimization Checklist:</t>
+  </si>
+  <si>
+    <t>https://pronamel.us/amp/things-you-should-spend-money-on.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL Structure: </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>What to Spend MORE Money on in 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Title Tag: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>oral health, teeth, toothpaste, 2019, education, diet, fitness</t>
+    </r>
+  </si>
+  <si>
+    <t>Keyword usage:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Put your money to good use this year by spending it on these things that will help you better yourself.</t>
+    </r>
+  </si>
+  <si>
+    <t>Meta Description (158):</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>5 Things You Should Spend MORE Money on in 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Headline (h1 Header): </t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +418,87 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,13 +510,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +811,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" display="https://adaa.org/understanding-anxiety/related-illnesses/other-related-conditions/stress/physical-activity-reduces-st" xr:uid="{2EBA306C-E595-4840-9B83-58CE3FDBE4BE}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D1C8D4E1-99B6-4837-BC54-742DB87B2709}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Brief/Brief.xlsx
+++ b/Brief/Brief.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{44DD3852-0F23-4942-BBCA-2E5D292F20D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A54C2D05-6A5B-4667-AEFA-1BE8865C5BC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Stracture" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_1hljhzhi7rkj" localSheetId="0">List1!$B$16</definedName>
-    <definedName name="_gjdgxs" localSheetId="0">List1!$B$12</definedName>
+    <definedName name="_1hljhzhi7rkj" localSheetId="0">Stracture!$B$16</definedName>
+    <definedName name="_gjdgxs" localSheetId="0">Stracture!$B$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -985,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1089,7 +1089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -1361,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32794B-97DB-44EE-8A77-CF429E1EEEFE}">
   <dimension ref="A2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Brief/Brief.xlsx
+++ b/Brief/Brief.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A54C2D05-6A5B-4667-AEFA-1BE8865C5BC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B28D2099-9C61-49A6-9DDE-6822BDFECC7F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stracture" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
+    <sheet name="Extra" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_1hljhzhi7rkj" localSheetId="0">Stracture!$B$16</definedName>
@@ -985,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1435,4 +1436,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CE9ABC-C43C-4B06-B7AF-247A530B21C3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Brief/Brief.xlsx
+++ b/Brief/Brief.xlsx
@@ -3,14 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B28D2099-9C61-49A6-9DDE-6822BDFECC7F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0661BED0-9208-436A-839E-9CC0766A5D60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stracture" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
-    <sheet name="Extra" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_1hljhzhi7rkj" localSheetId="0">Stracture!$B$16</definedName>
@@ -1362,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C32794B-97DB-44EE-8A77-CF429E1EEEFE}">
   <dimension ref="A2:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1436,18 +1435,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CE9ABC-C43C-4B06-B7AF-247A530B21C3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>